--- a/train-first-23.xlsx
+++ b/train-first-23.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$473</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$561</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="29">
   <si>
     <t>Well Name</t>
   </si>
@@ -87,6 +87,36 @@
   </si>
   <si>
     <t>JY3</t>
+  </si>
+  <si>
+    <t>JY7-2HF</t>
+  </si>
+  <si>
+    <t>JY12-4HF</t>
+  </si>
+  <si>
+    <t>JY37-4HF</t>
+  </si>
+  <si>
+    <t>JY52-2HF</t>
+  </si>
+  <si>
+    <t>JY52-3HF</t>
+  </si>
+  <si>
+    <t>JY36-5HF</t>
+  </si>
+  <si>
+    <t>JY36-6HF</t>
+  </si>
+  <si>
+    <t>JY37-3HF</t>
+  </si>
+  <si>
+    <t>JY57-1HF</t>
+  </si>
+  <si>
+    <t>JY57-2HF</t>
   </si>
 </sst>
 </file>
@@ -1230,11 +1260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I473"/>
+  <sheetPr/>
+  <dimension ref="A1:I561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:B561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1793,7 +1823,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:9">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +1852,7 @@
         <v>4.115</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:9">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1851,7 +1881,7 @@
         <v>4.409</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:9">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1909,7 +1939,7 @@
         <v>2.142</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:9">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2025,7 +2055,7 @@
         <v>4.393</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:9">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2054,7 +2084,7 @@
         <v>4.153</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:9">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2083,7 +2113,7 @@
         <v>3.857</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:9">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2199,7 +2229,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:9">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2257,7 +2287,7 @@
         <v>4.241</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:9">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2286,7 +2316,7 @@
         <v>3.853</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:9">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2315,7 +2345,7 @@
         <v>4.353</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:9">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2344,7 +2374,7 @@
         <v>3.901</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:9">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2373,7 +2403,7 @@
         <v>2.783</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:9">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2402,7 +2432,7 @@
         <v>3.415</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:9">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2431,7 +2461,7 @@
         <v>3.432</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:9">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2460,7 +2490,7 @@
         <v>2.312</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:9">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2489,7 +2519,7 @@
         <v>3.702</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:9">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2518,7 +2548,7 @@
         <v>3.469</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:9">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2547,7 +2577,7 @@
         <v>3.872</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:9">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2576,7 +2606,7 @@
         <v>3.601</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:9">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2605,7 +2635,7 @@
         <v>2.966</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:9">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2634,7 +2664,7 @@
         <v>3.257</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:9">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -2692,7 +2722,7 @@
         <v>3.708</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:9">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2721,7 +2751,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:9">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2750,7 +2780,7 @@
         <v>3.738</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:9">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2779,7 +2809,7 @@
         <v>3.355</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:9">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2808,7 +2838,7 @@
         <v>3.465</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:9">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2837,7 +2867,7 @@
         <v>2.803</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:9">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2866,7 +2896,7 @@
         <v>3.759</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:9">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2895,7 +2925,7 @@
         <v>3.444</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:9">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2924,7 +2954,7 @@
         <v>3.453</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:9">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2953,7 +2983,7 @@
         <v>3.597</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:9">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2982,7 +3012,7 @@
         <v>3.751</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:9">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3011,7 +3041,7 @@
         <v>3.158</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:9">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -3040,7 +3070,7 @@
         <v>2.901</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:9">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -3098,7 +3128,7 @@
         <v>2.206</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:9">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -3127,7 +3157,7 @@
         <v>3.493</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:9">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -3156,7 +3186,7 @@
         <v>3.635</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:9">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -3185,7 +3215,7 @@
         <v>2.574</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:9">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -3243,7 +3273,7 @@
         <v>2.679</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:9">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -3301,7 +3331,7 @@
         <v>4.429</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:9">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -3330,7 +3360,7 @@
         <v>2.525</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:9">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3359,7 +3389,7 @@
         <v>3.416</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:9">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -3388,7 +3418,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:9">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3417,7 +3447,7 @@
         <v>2.832</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:9">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3446,7 +3476,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:9">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3505,7 @@
         <v>2.706</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:9">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -3504,7 +3534,7 @@
         <v>3.133</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:9">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -3533,7 +3563,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:9">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -3562,7 +3592,7 @@
         <v>2.698</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:9">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -3591,7 +3621,7 @@
         <v>2.799</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:9">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -3707,7 +3737,7 @@
         <v>2.892</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:9">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -3765,7 +3795,7 @@
         <v>2.015</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:9">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3997,7 +4027,7 @@
         <v>5.101</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:9">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -4026,7 +4056,7 @@
         <v>2.973</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:9">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -4925,7 +4955,7 @@
         <v>4.016</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:9">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -4983,7 +5013,7 @@
         <v>5.624</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:9">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -5012,7 +5042,7 @@
         <v>5.001</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:9">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -5041,7 +5071,7 @@
         <v>3.897</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:9">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -5070,7 +5100,7 @@
         <v>4.923</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:9">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -5099,7 +5129,7 @@
         <v>5.245</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:9">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -5128,7 +5158,7 @@
         <v>4.563</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:9">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -5157,7 +5187,7 @@
         <v>3.292</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:9">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -5186,7 +5216,7 @@
         <v>3.815</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:9">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -5215,7 +5245,7 @@
         <v>4.314</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:9">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -5447,7 +5477,7 @@
         <v>4.506</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:9">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -5476,7 +5506,7 @@
         <v>4.414</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:9">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -5563,7 +5593,7 @@
         <v>4.664</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:9">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -5592,7 +5622,7 @@
         <v>4.547</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:9">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -5621,7 +5651,7 @@
         <v>4.014</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:9">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -5650,7 +5680,7 @@
         <v>3.608</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:9">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -5679,7 +5709,7 @@
         <v>3.158</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:9">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -5708,7 +5738,7 @@
         <v>3.784</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:9">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -5737,7 +5767,7 @@
         <v>3.874</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:9">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -5766,7 +5796,7 @@
         <v>3.934</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:9">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -5795,7 +5825,7 @@
         <v>4.207</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:9">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -5824,7 +5854,7 @@
         <v>4.192</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:9">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -5853,7 +5883,7 @@
         <v>3.914</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:9">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -5882,7 +5912,7 @@
         <v>4.093</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:9">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -5911,7 +5941,7 @@
         <v>3.491</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:9">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -5940,7 +5970,7 @@
         <v>3.958</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:9">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -5969,7 +5999,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:9">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -5998,7 +6028,7 @@
         <v>3.738</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:9">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -6027,7 +6057,7 @@
         <v>3.238</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:9">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -6056,7 +6086,7 @@
         <v>3.115</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:9">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -6085,7 +6115,7 @@
         <v>3.547</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:9">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -6114,7 +6144,7 @@
         <v>3.098</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:9">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -6230,7 +6260,7 @@
         <v>3.249</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:9">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -6259,7 +6289,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:9">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -6288,7 +6318,7 @@
         <v>3.823</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:9">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -6317,7 +6347,7 @@
         <v>3.602</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:9">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -6346,7 +6376,7 @@
         <v>3.342</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:9">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -6375,7 +6405,7 @@
         <v>2.975</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:9">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -6404,7 +6434,7 @@
         <v>3.116</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:9">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>10</v>
       </c>
@@ -6433,7 +6463,7 @@
         <v>3.353</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:9">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -6462,7 +6492,7 @@
         <v>3.524</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:9">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>10</v>
       </c>
@@ -6491,7 +6521,7 @@
         <v>3.076</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:9">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -6520,7 +6550,7 @@
         <v>3.329</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:9">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -6549,7 +6579,7 @@
         <v>3.227</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:9">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -6578,7 +6608,7 @@
         <v>3.147</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:9">
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>10</v>
       </c>
@@ -6607,7 +6637,7 @@
         <v>3.409</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:9">
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -6636,7 +6666,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:9">
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>10</v>
       </c>
@@ -6665,7 +6695,7 @@
         <v>3.012</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:9">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -6694,7 +6724,7 @@
         <v>2.683</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:9">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>10</v>
       </c>
@@ -6723,7 +6753,7 @@
         <v>2.856</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:9">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -6752,7 +6782,7 @@
         <v>4.057</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:9">
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -6781,7 +6811,7 @@
         <v>3.586</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:9">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>10</v>
       </c>
@@ -6810,7 +6840,7 @@
         <v>2.682</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:9">
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>10</v>
       </c>
@@ -6839,7 +6869,7 @@
         <v>2.848</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:9">
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -6868,7 +6898,7 @@
         <v>3.061</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:9">
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -6926,7 +6956,7 @@
         <v>2.849</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:9">
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -6955,7 +6985,7 @@
         <v>2.838</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:9">
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -6984,7 +7014,7 @@
         <v>2.913</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:9">
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>10</v>
       </c>
@@ -7013,7 +7043,7 @@
         <v>3.357</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:9">
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -7042,7 +7072,7 @@
         <v>2.936</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:9">
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>10</v>
       </c>
@@ -7216,7 +7246,7 @@
         <v>3.199</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:9">
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
         <v>10</v>
       </c>
@@ -7245,7 +7275,7 @@
         <v>4.109</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:9">
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
         <v>10</v>
       </c>
@@ -7332,7 +7362,7 @@
         <v>4.081</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:9">
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -7390,7 +7420,7 @@
         <v>2.086</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:9">
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -7535,7 +7565,7 @@
         <v>3.987</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:9">
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -7593,7 +7623,7 @@
         <v>4.359</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:9">
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -8840,7 +8870,7 @@
         <v>3.982</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:9">
+    <row r="263" spans="1:9">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -8985,7 +9015,7 @@
         <v>2.957</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:9">
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
         <v>11</v>
       </c>
@@ -9014,7 +9044,7 @@
         <v>3.997</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:9">
+    <row r="269" spans="1:9">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -9043,7 +9073,7 @@
         <v>4.325</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:9">
+    <row r="270" spans="1:9">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -9101,7 +9131,7 @@
         <v>3.062</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:9">
+    <row r="272" spans="1:9">
       <c r="A272" t="s">
         <v>11</v>
       </c>
@@ -9130,7 +9160,7 @@
         <v>3.342</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:9">
+    <row r="273" spans="1:9">
       <c r="A273" t="s">
         <v>11</v>
       </c>
@@ -9159,7 +9189,7 @@
         <v>3.782</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:9">
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
         <v>11</v>
       </c>
@@ -9188,7 +9218,7 @@
         <v>4.088</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:9">
+    <row r="275" spans="1:9">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -9217,7 +9247,7 @@
         <v>3.909</v>
       </c>
     </row>
-    <row r="276" hidden="1" spans="1:9">
+    <row r="276" spans="1:9">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -9246,7 +9276,7 @@
         <v>4.797</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:9">
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
         <v>11</v>
       </c>
@@ -9275,7 +9305,7 @@
         <v>3.667</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:9">
+    <row r="278" spans="1:9">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -9304,7 +9334,7 @@
         <v>3.649</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:9">
+    <row r="279" spans="1:9">
       <c r="A279" t="s">
         <v>11</v>
       </c>
@@ -9333,7 +9363,7 @@
         <v>3.714</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:9">
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
         <v>11</v>
       </c>
@@ -9362,7 +9392,7 @@
         <v>3.743</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:9">
+    <row r="281" spans="1:9">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -9391,7 +9421,7 @@
         <v>3.542</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:9">
+    <row r="282" spans="1:9">
       <c r="A282" t="s">
         <v>11</v>
       </c>
@@ -9420,7 +9450,7 @@
         <v>4.272</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:9">
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
         <v>11</v>
       </c>
@@ -9449,7 +9479,7 @@
         <v>4.484</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:9">
+    <row r="284" spans="1:9">
       <c r="A284" t="s">
         <v>11</v>
       </c>
@@ -9478,7 +9508,7 @@
         <v>4.593</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:9">
+    <row r="285" spans="1:9">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -9507,7 +9537,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:9">
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
         <v>11</v>
       </c>
@@ -9536,7 +9566,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:9">
+    <row r="287" spans="1:9">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -9565,7 +9595,7 @@
         <v>3.537</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:9">
+    <row r="288" spans="1:9">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -9623,7 +9653,7 @@
         <v>4.268</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:9">
+    <row r="290" spans="1:9">
       <c r="A290" t="s">
         <v>11</v>
       </c>
@@ -9652,7 +9682,7 @@
         <v>4.079</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:9">
+    <row r="291" spans="1:9">
       <c r="A291" t="s">
         <v>11</v>
       </c>
@@ -9681,7 +9711,7 @@
         <v>3.739</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:9">
+    <row r="292" spans="1:9">
       <c r="A292" t="s">
         <v>11</v>
       </c>
@@ -9710,7 +9740,7 @@
         <v>4.528</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:9">
+    <row r="293" spans="1:9">
       <c r="A293" t="s">
         <v>11</v>
       </c>
@@ -9739,7 +9769,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:9">
+    <row r="294" spans="1:9">
       <c r="A294" t="s">
         <v>11</v>
       </c>
@@ -9768,7 +9798,7 @@
         <v>3.099</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:9">
+    <row r="295" spans="1:9">
       <c r="A295" t="s">
         <v>11</v>
       </c>
@@ -9797,7 +9827,7 @@
         <v>3.424</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:9">
+    <row r="296" spans="1:9">
       <c r="A296" t="s">
         <v>11</v>
       </c>
@@ -9826,7 +9856,7 @@
         <v>3.515</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:9">
+    <row r="297" spans="1:9">
       <c r="A297" t="s">
         <v>11</v>
       </c>
@@ -9855,7 +9885,7 @@
         <v>3.578</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:9">
+    <row r="298" spans="1:9">
       <c r="A298" t="s">
         <v>11</v>
       </c>
@@ -9884,7 +9914,7 @@
         <v>3.597</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:9">
+    <row r="299" spans="1:9">
       <c r="A299" t="s">
         <v>11</v>
       </c>
@@ -9913,7 +9943,7 @@
         <v>3.933</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:9">
+    <row r="300" spans="1:9">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -9942,7 +9972,7 @@
         <v>4.742</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:9">
+    <row r="301" spans="1:9">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -9971,7 +10001,7 @@
         <v>4.775</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:9">
+    <row r="302" spans="1:9">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -10000,7 +10030,7 @@
         <v>4.287</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:9">
+    <row r="303" spans="1:9">
       <c r="A303" t="s">
         <v>11</v>
       </c>
@@ -10029,7 +10059,7 @@
         <v>3.231</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:9">
+    <row r="304" spans="1:9">
       <c r="A304" t="s">
         <v>11</v>
       </c>
@@ -10058,7 +10088,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="1:9">
+    <row r="305" spans="1:9">
       <c r="A305" t="s">
         <v>11</v>
       </c>
@@ -10087,7 +10117,7 @@
         <v>3.108</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="1:9">
+    <row r="306" spans="1:9">
       <c r="A306" t="s">
         <v>11</v>
       </c>
@@ -10116,7 +10146,7 @@
         <v>2.824</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:9">
+    <row r="307" spans="1:9">
       <c r="A307" t="s">
         <v>11</v>
       </c>
@@ -10145,7 +10175,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:9">
+    <row r="308" spans="1:9">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -10174,7 +10204,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:9">
+    <row r="309" spans="1:9">
       <c r="A309" t="s">
         <v>11</v>
       </c>
@@ -10203,7 +10233,7 @@
         <v>3.793</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:9">
+    <row r="310" spans="1:9">
       <c r="A310" t="s">
         <v>11</v>
       </c>
@@ -10232,7 +10262,7 @@
         <v>3.896</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="1:9">
+    <row r="311" spans="1:9">
       <c r="A311" t="s">
         <v>11</v>
       </c>
@@ -10261,7 +10291,7 @@
         <v>4.067</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="1:9">
+    <row r="312" spans="1:9">
       <c r="A312" t="s">
         <v>11</v>
       </c>
@@ -10319,7 +10349,7 @@
         <v>3.851</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:9">
+    <row r="314" spans="1:9">
       <c r="A314" t="s">
         <v>11</v>
       </c>
@@ -10348,7 +10378,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="315" hidden="1" spans="1:9">
+    <row r="315" spans="1:9">
       <c r="A315" t="s">
         <v>11</v>
       </c>
@@ -10406,7 +10436,7 @@
         <v>3.642</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="1:9">
+    <row r="317" spans="1:9">
       <c r="A317" t="s">
         <v>11</v>
       </c>
@@ -10435,7 +10465,7 @@
         <v>3.506</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:9">
+    <row r="318" spans="1:9">
       <c r="A318" t="s">
         <v>11</v>
       </c>
@@ -10464,7 +10494,7 @@
         <v>3.745</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="1:9">
+    <row r="319" spans="1:9">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -10493,7 +10523,7 @@
         <v>3.773</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="1:9">
+    <row r="320" spans="1:9">
       <c r="A320" t="s">
         <v>11</v>
       </c>
@@ -10522,7 +10552,7 @@
         <v>3.849</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="1:9">
+    <row r="321" spans="1:9">
       <c r="A321" t="s">
         <v>11</v>
       </c>
@@ -10551,7 +10581,7 @@
         <v>3.817</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="1:9">
+    <row r="322" spans="1:9">
       <c r="A322" t="s">
         <v>11</v>
       </c>
@@ -10580,7 +10610,7 @@
         <v>3.862</v>
       </c>
     </row>
-    <row r="323" hidden="1" spans="1:9">
+    <row r="323" spans="1:9">
       <c r="A323" t="s">
         <v>11</v>
       </c>
@@ -10609,7 +10639,7 @@
         <v>3.754</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="1:9">
+    <row r="324" spans="1:9">
       <c r="A324" t="s">
         <v>11</v>
       </c>
@@ -10638,7 +10668,7 @@
         <v>3.336</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="1:9">
+    <row r="325" spans="1:9">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -10667,7 +10697,7 @@
         <v>2.684</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:9">
+    <row r="326" spans="1:9">
       <c r="A326" t="s">
         <v>11</v>
       </c>
@@ -10696,7 +10726,7 @@
         <v>3.849</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:9">
+    <row r="327" spans="1:9">
       <c r="A327" t="s">
         <v>11</v>
       </c>
@@ -10725,7 +10755,7 @@
         <v>4.282</v>
       </c>
     </row>
-    <row r="328" hidden="1" spans="1:9">
+    <row r="328" spans="1:9">
       <c r="A328" t="s">
         <v>11</v>
       </c>
@@ -10754,7 +10784,7 @@
         <v>4.069</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:9">
+    <row r="329" spans="1:9">
       <c r="A329" t="s">
         <v>11</v>
       </c>
@@ -10783,7 +10813,7 @@
         <v>3.131</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:9">
+    <row r="330" spans="1:9">
       <c r="A330" t="s">
         <v>11</v>
       </c>
@@ -10812,7 +10842,7 @@
         <v>2.943</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:9">
+    <row r="331" spans="1:9">
       <c r="A331" t="s">
         <v>11</v>
       </c>
@@ -10841,7 +10871,7 @@
         <v>3.083</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:9">
+    <row r="332" spans="1:9">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -10870,7 +10900,7 @@
         <v>3.454</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="1:9">
+    <row r="333" spans="1:9">
       <c r="A333" t="s">
         <v>11</v>
       </c>
@@ -10899,7 +10929,7 @@
         <v>3.155</v>
       </c>
     </row>
-    <row r="334" hidden="1" spans="1:9">
+    <row r="334" spans="1:9">
       <c r="A334" t="s">
         <v>11</v>
       </c>
@@ -10928,7 +10958,7 @@
         <v>3.161</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="1:9">
+    <row r="335" spans="1:9">
       <c r="A335" t="s">
         <v>11</v>
       </c>
@@ -10957,7 +10987,7 @@
         <v>3.141</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="1:9">
+    <row r="336" spans="1:9">
       <c r="A336" t="s">
         <v>11</v>
       </c>
@@ -10986,7 +11016,7 @@
         <v>3.151</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:9">
+    <row r="337" spans="1:9">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -11015,7 +11045,7 @@
         <v>2.671</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:9">
+    <row r="338" spans="1:9">
       <c r="A338" t="s">
         <v>11</v>
       </c>
@@ -11044,7 +11074,7 @@
         <v>2.444</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="1:9">
+    <row r="339" spans="1:9">
       <c r="A339" t="s">
         <v>11</v>
       </c>
@@ -11073,7 +11103,7 @@
         <v>2.098</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:9">
+    <row r="340" spans="1:9">
       <c r="A340" t="s">
         <v>11</v>
       </c>
@@ -11102,7 +11132,7 @@
         <v>2.229</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:9">
+    <row r="341" spans="1:9">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -11131,7 +11161,7 @@
         <v>2.834</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:9">
+    <row r="342" spans="1:9">
       <c r="A342" t="s">
         <v>11</v>
       </c>
@@ -11160,7 +11190,7 @@
         <v>2.572</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="1:9">
+    <row r="343" spans="1:9">
       <c r="A343" t="s">
         <v>11</v>
       </c>
@@ -11189,7 +11219,7 @@
         <v>2.795</v>
       </c>
     </row>
-    <row r="344" hidden="1" spans="1:9">
+    <row r="344" spans="1:9">
       <c r="A344" t="s">
         <v>11</v>
       </c>
@@ -11218,7 +11248,7 @@
         <v>2.465</v>
       </c>
     </row>
-    <row r="345" hidden="1" spans="1:9">
+    <row r="345" spans="1:9">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -11247,7 +11277,7 @@
         <v>3.366</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:9">
+    <row r="346" spans="1:9">
       <c r="A346" t="s">
         <v>11</v>
       </c>
@@ -11276,7 +11306,7 @@
         <v>3.687</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:9">
+    <row r="347" spans="1:9">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -11305,7 +11335,7 @@
         <v>3.082</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:9">
+    <row r="348" spans="1:9">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -11769,7 +11799,7 @@
         <v>3.925</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="1:9">
+    <row r="364" spans="1:9">
       <c r="A364" t="s">
         <v>11</v>
       </c>
@@ -11798,7 +11828,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="365" hidden="1" spans="1:9">
+    <row r="365" spans="1:9">
       <c r="A365" t="s">
         <v>11</v>
       </c>
@@ -12088,7 +12118,7 @@
         <v>3.962</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:9">
+    <row r="375" spans="1:9">
       <c r="A375" t="s">
         <v>12</v>
       </c>
@@ -12117,7 +12147,7 @@
         <v>3.655</v>
       </c>
     </row>
-    <row r="376" hidden="1" spans="1:9">
+    <row r="376" spans="1:9">
       <c r="A376" t="s">
         <v>12</v>
       </c>
@@ -12175,7 +12205,7 @@
         <v>3.616</v>
       </c>
     </row>
-    <row r="378" hidden="1" spans="1:9">
+    <row r="378" spans="1:9">
       <c r="A378" t="s">
         <v>12</v>
       </c>
@@ -12204,7 +12234,7 @@
         <v>3.918</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:9">
+    <row r="379" spans="1:9">
       <c r="A379" t="s">
         <v>12</v>
       </c>
@@ -12233,7 +12263,7 @@
         <v>3.936</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="1:9">
+    <row r="380" spans="1:9">
       <c r="A380" t="s">
         <v>12</v>
       </c>
@@ -12262,7 +12292,7 @@
         <v>3.313</v>
       </c>
     </row>
-    <row r="381" hidden="1" spans="1:9">
+    <row r="381" spans="1:9">
       <c r="A381" t="s">
         <v>12</v>
       </c>
@@ -12291,7 +12321,7 @@
         <v>2.808</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="1:9">
+    <row r="382" spans="1:9">
       <c r="A382" t="s">
         <v>12</v>
       </c>
@@ -12320,7 +12350,7 @@
         <v>2.766</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="1:9">
+    <row r="383" spans="1:9">
       <c r="A383" t="s">
         <v>12</v>
       </c>
@@ -12349,7 +12379,7 @@
         <v>3.051</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:9">
+    <row r="384" spans="1:9">
       <c r="A384" t="s">
         <v>12</v>
       </c>
@@ -12378,7 +12408,7 @@
         <v>3.372</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="1:9">
+    <row r="385" spans="1:9">
       <c r="A385" t="s">
         <v>12</v>
       </c>
@@ -12407,7 +12437,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="386" hidden="1" spans="1:9">
+    <row r="386" spans="1:9">
       <c r="A386" t="s">
         <v>12</v>
       </c>
@@ -12436,7 +12466,7 @@
         <v>3.348</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="1:9">
+    <row r="387" spans="1:9">
       <c r="A387" t="s">
         <v>12</v>
       </c>
@@ -12494,7 +12524,7 @@
         <v>3.965</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:9">
+    <row r="389" spans="1:9">
       <c r="A389" t="s">
         <v>12</v>
       </c>
@@ -12523,7 +12553,7 @@
         <v>4.043</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:9">
+    <row r="390" spans="1:9">
       <c r="A390" t="s">
         <v>12</v>
       </c>
@@ -12552,7 +12582,7 @@
         <v>3.587</v>
       </c>
     </row>
-    <row r="391" hidden="1" spans="1:9">
+    <row r="391" spans="1:9">
       <c r="A391" t="s">
         <v>12</v>
       </c>
@@ -12581,7 +12611,7 @@
         <v>2.759</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:9">
+    <row r="392" spans="1:9">
       <c r="A392" t="s">
         <v>12</v>
       </c>
@@ -12610,7 +12640,7 @@
         <v>3.182</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:9">
+    <row r="393" spans="1:9">
       <c r="A393" t="s">
         <v>12</v>
       </c>
@@ -12639,7 +12669,7 @@
         <v>3.676</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="1:9">
+    <row r="394" spans="1:9">
       <c r="A394" t="s">
         <v>12</v>
       </c>
@@ -12668,7 +12698,7 @@
         <v>3.419</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:9">
+    <row r="395" spans="1:9">
       <c r="A395" t="s">
         <v>12</v>
       </c>
@@ -12697,7 +12727,7 @@
         <v>3.673</v>
       </c>
     </row>
-    <row r="396" hidden="1" spans="1:9">
+    <row r="396" spans="1:9">
       <c r="A396" t="s">
         <v>12</v>
       </c>
@@ -12726,7 +12756,7 @@
         <v>3.665</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:9">
+    <row r="397" spans="1:9">
       <c r="A397" t="s">
         <v>12</v>
       </c>
@@ -12755,7 +12785,7 @@
         <v>2.813</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="1:9">
+    <row r="398" spans="1:9">
       <c r="A398" t="s">
         <v>12</v>
       </c>
@@ -12784,7 +12814,7 @@
         <v>3.209</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="1:9">
+    <row r="399" spans="1:9">
       <c r="A399" t="s">
         <v>12</v>
       </c>
@@ -12813,7 +12843,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:9">
+    <row r="400" spans="1:9">
       <c r="A400" t="s">
         <v>12</v>
       </c>
@@ -12842,7 +12872,7 @@
         <v>3.163</v>
       </c>
     </row>
-    <row r="401" hidden="1" spans="1:9">
+    <row r="401" spans="1:9">
       <c r="A401" t="s">
         <v>12</v>
       </c>
@@ -12871,7 +12901,7 @@
         <v>2.748</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="1:9">
+    <row r="402" spans="1:9">
       <c r="A402" t="s">
         <v>12</v>
       </c>
@@ -12900,7 +12930,7 @@
         <v>2.793</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:9">
+    <row r="403" spans="1:9">
       <c r="A403" t="s">
         <v>12</v>
       </c>
@@ -12929,7 +12959,7 @@
         <v>2.865</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:9">
+    <row r="404" spans="1:9">
       <c r="A404" t="s">
         <v>12</v>
       </c>
@@ -12958,7 +12988,7 @@
         <v>2.983</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:9">
+    <row r="405" spans="1:9">
       <c r="A405" t="s">
         <v>12</v>
       </c>
@@ -12987,7 +13017,7 @@
         <v>3.077</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="1:9">
+    <row r="406" spans="1:9">
       <c r="A406" t="s">
         <v>12</v>
       </c>
@@ -13016,7 +13046,7 @@
         <v>2.594</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="1:9">
+    <row r="407" spans="1:9">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -13045,7 +13075,7 @@
         <v>2.726</v>
       </c>
     </row>
-    <row r="408" hidden="1" spans="1:9">
+    <row r="408" spans="1:9">
       <c r="A408" t="s">
         <v>12</v>
       </c>
@@ -13074,7 +13104,7 @@
         <v>2.639</v>
       </c>
     </row>
-    <row r="409" hidden="1" spans="1:9">
+    <row r="409" spans="1:9">
       <c r="A409" t="s">
         <v>12</v>
       </c>
@@ -13103,7 +13133,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="1:9">
+    <row r="410" spans="1:9">
       <c r="A410" t="s">
         <v>12</v>
       </c>
@@ -13161,7 +13191,7 @@
         <v>2.887</v>
       </c>
     </row>
-    <row r="412" hidden="1" spans="1:9">
+    <row r="412" spans="1:9">
       <c r="A412" t="s">
         <v>12</v>
       </c>
@@ -13190,7 +13220,7 @@
         <v>2.822</v>
       </c>
     </row>
-    <row r="413" hidden="1" spans="1:9">
+    <row r="413" spans="1:9">
       <c r="A413" t="s">
         <v>12</v>
       </c>
@@ -13219,7 +13249,7 @@
         <v>2.738</v>
       </c>
     </row>
-    <row r="414" hidden="1" spans="1:9">
+    <row r="414" spans="1:9">
       <c r="A414" t="s">
         <v>12</v>
       </c>
@@ -13248,7 +13278,7 @@
         <v>3.152</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="1:9">
+    <row r="415" spans="1:9">
       <c r="A415" t="s">
         <v>12</v>
       </c>
@@ -13277,7 +13307,7 @@
         <v>2.065</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="1:9">
+    <row r="416" spans="1:9">
       <c r="A416" t="s">
         <v>12</v>
       </c>
@@ -13480,7 +13510,7 @@
         <v>3.434</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="1:9">
+    <row r="423" spans="1:9">
       <c r="A423" t="s">
         <v>13</v>
       </c>
@@ -13625,7 +13655,7 @@
         <v>4.304</v>
       </c>
     </row>
-    <row r="428" hidden="1" spans="1:9">
+    <row r="428" spans="1:9">
       <c r="A428" t="s">
         <v>14</v>
       </c>
@@ -13712,7 +13742,7 @@
         <v>4.277</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="1:9">
+    <row r="431" spans="1:9">
       <c r="A431" t="s">
         <v>14</v>
       </c>
@@ -13857,7 +13887,7 @@
         <v>4.004</v>
       </c>
     </row>
-    <row r="436" hidden="1" spans="1:9">
+    <row r="436" spans="1:9">
       <c r="A436" t="s">
         <v>15</v>
       </c>
@@ -13886,7 +13916,7 @@
         <v>2.737</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:9">
+    <row r="437" spans="1:9">
       <c r="A437" t="s">
         <v>15</v>
       </c>
@@ -13973,7 +14003,7 @@
         <v>4.349</v>
       </c>
     </row>
-    <row r="440" hidden="1" spans="1:9">
+    <row r="440" spans="1:9">
       <c r="A440" t="s">
         <v>15</v>
       </c>
@@ -14002,7 +14032,7 @@
         <v>4.107</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="1:9">
+    <row r="441" spans="1:9">
       <c r="A441" t="s">
         <v>15</v>
       </c>
@@ -14031,7 +14061,7 @@
         <v>3.616</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:9">
+    <row r="442" spans="1:9">
       <c r="A442" t="s">
         <v>15</v>
       </c>
@@ -14060,7 +14090,7 @@
         <v>2.759</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="1:9">
+    <row r="443" spans="1:9">
       <c r="A443" t="s">
         <v>15</v>
       </c>
@@ -14089,7 +14119,7 @@
         <v>2.434</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:9">
+    <row r="444" spans="1:9">
       <c r="A444" t="s">
         <v>15</v>
       </c>
@@ -14350,7 +14380,7 @@
         <v>4.565</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:9">
+    <row r="453" spans="1:9">
       <c r="A453" t="s">
         <v>16</v>
       </c>
@@ -14495,7 +14525,7 @@
         <v>3.933</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="1:9">
+    <row r="458" spans="1:9">
       <c r="A458" t="s">
         <v>16</v>
       </c>
@@ -14524,7 +14554,7 @@
         <v>3.328</v>
       </c>
     </row>
-    <row r="459" hidden="1" spans="1:9">
+    <row r="459" spans="1:9">
       <c r="A459" t="s">
         <v>16</v>
       </c>
@@ -14959,13 +14989,2110 @@
         <v>2.328</v>
       </c>
     </row>
+    <row r="474" spans="1:9">
+      <c r="A474" t="s">
+        <v>19</v>
+      </c>
+      <c r="B474">
+        <v>2</v>
+      </c>
+      <c r="C474">
+        <v>104.65</v>
+      </c>
+      <c r="D474">
+        <v>188.316</v>
+      </c>
+      <c r="E474">
+        <v>2.694</v>
+      </c>
+      <c r="F474">
+        <v>8.955</v>
+      </c>
+      <c r="H474">
+        <v>35.798</v>
+      </c>
+      <c r="I474">
+        <v>2.312</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
+      <c r="A475" t="s">
+        <v>19</v>
+      </c>
+      <c r="B475">
+        <v>2</v>
+      </c>
+      <c r="C475">
+        <v>100.639</v>
+      </c>
+      <c r="D475">
+        <v>188.404</v>
+      </c>
+      <c r="E475">
+        <v>2.697</v>
+      </c>
+      <c r="F475">
+        <v>8.804</v>
+      </c>
+      <c r="H475">
+        <v>34.8</v>
+      </c>
+      <c r="I475">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
+      <c r="A476" t="s">
+        <v>19</v>
+      </c>
+      <c r="B476">
+        <v>2</v>
+      </c>
+      <c r="C476">
+        <v>98.641</v>
+      </c>
+      <c r="D476">
+        <v>190.117</v>
+      </c>
+      <c r="E476">
+        <v>2.69</v>
+      </c>
+      <c r="F476">
+        <v>8.964</v>
+      </c>
+      <c r="H476">
+        <v>33.804</v>
+      </c>
+      <c r="I476">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="A477" t="s">
+        <v>19</v>
+      </c>
+      <c r="B477">
+        <v>2</v>
+      </c>
+      <c r="C477">
+        <v>98.65</v>
+      </c>
+      <c r="D477">
+        <v>193.036</v>
+      </c>
+      <c r="E477">
+        <v>2.678</v>
+      </c>
+      <c r="F477">
+        <v>9.599</v>
+      </c>
+      <c r="H477">
+        <v>32.862</v>
+      </c>
+      <c r="I477">
+        <v>2.527</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
+      <c r="A478" t="s">
+        <v>19</v>
+      </c>
+      <c r="B478">
+        <v>2</v>
+      </c>
+      <c r="C478">
+        <v>99.89</v>
+      </c>
+      <c r="D478">
+        <v>197.661</v>
+      </c>
+      <c r="E478">
+        <v>2.661</v>
+      </c>
+      <c r="F478">
+        <v>10.645</v>
+      </c>
+      <c r="H478">
+        <v>32.023</v>
+      </c>
+      <c r="I478">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="A479" t="s">
+        <v>19</v>
+      </c>
+      <c r="B479">
+        <v>2</v>
+      </c>
+      <c r="C479">
+        <v>101.481</v>
+      </c>
+      <c r="D479">
+        <v>203.894</v>
+      </c>
+      <c r="E479">
+        <v>2.641</v>
+      </c>
+      <c r="F479">
+        <v>11.646</v>
+      </c>
+      <c r="H479">
+        <v>31.213</v>
+      </c>
+      <c r="I479">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
+      <c r="A480" t="s">
+        <v>19</v>
+      </c>
+      <c r="B480">
+        <v>2</v>
+      </c>
+      <c r="C480">
+        <v>103.575</v>
+      </c>
+      <c r="D480">
+        <v>209.795</v>
+      </c>
+      <c r="E480">
+        <v>2.621</v>
+      </c>
+      <c r="F480">
+        <v>12.534</v>
+      </c>
+      <c r="H480">
+        <v>30.373</v>
+      </c>
+      <c r="I480">
+        <v>2.801</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481" t="s">
+        <v>19</v>
+      </c>
+      <c r="B481">
+        <v>2</v>
+      </c>
+      <c r="C481">
+        <v>106.644</v>
+      </c>
+      <c r="D481">
+        <v>215.122</v>
+      </c>
+      <c r="E481">
+        <v>2.606</v>
+      </c>
+      <c r="F481">
+        <v>13.321</v>
+      </c>
+      <c r="H481">
+        <v>29.813</v>
+      </c>
+      <c r="I481">
+        <v>2.851</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
+      <c r="A482" t="s">
+        <v>20</v>
+      </c>
+      <c r="B482">
+        <v>2</v>
+      </c>
+      <c r="C482">
+        <v>109.298</v>
+      </c>
+      <c r="D482">
+        <v>190.155</v>
+      </c>
+      <c r="E482">
+        <v>2.737</v>
+      </c>
+      <c r="F482">
+        <v>5.713</v>
+      </c>
+      <c r="H482">
+        <v>43.09</v>
+      </c>
+      <c r="I482">
+        <v>2.492</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
+      <c r="A483" t="s">
+        <v>20</v>
+      </c>
+      <c r="B483">
+        <v>2</v>
+      </c>
+      <c r="C483">
+        <v>107.751</v>
+      </c>
+      <c r="D483">
+        <v>189.429</v>
+      </c>
+      <c r="E483">
+        <v>2.737</v>
+      </c>
+      <c r="F483">
+        <v>5.669</v>
+      </c>
+      <c r="H483">
+        <v>43.108</v>
+      </c>
+      <c r="I483">
+        <v>2.477</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
+      <c r="A484" t="s">
+        <v>20</v>
+      </c>
+      <c r="B484">
+        <v>2</v>
+      </c>
+      <c r="C484">
+        <v>106.61</v>
+      </c>
+      <c r="D484">
+        <v>189.258</v>
+      </c>
+      <c r="E484">
+        <v>2.736</v>
+      </c>
+      <c r="F484">
+        <v>5.688</v>
+      </c>
+      <c r="H484">
+        <v>43.14</v>
+      </c>
+      <c r="I484">
+        <v>2.467</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485" t="s">
+        <v>20</v>
+      </c>
+      <c r="B485">
+        <v>2</v>
+      </c>
+      <c r="C485">
+        <v>105.448</v>
+      </c>
+      <c r="D485">
+        <v>189.082</v>
+      </c>
+      <c r="E485">
+        <v>2.734</v>
+      </c>
+      <c r="F485">
+        <v>5.707</v>
+      </c>
+      <c r="H485">
+        <v>44.746</v>
+      </c>
+      <c r="I485">
+        <v>2.457</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
+      <c r="A486" t="s">
+        <v>20</v>
+      </c>
+      <c r="B486">
+        <v>2</v>
+      </c>
+      <c r="C486">
+        <v>104.314</v>
+      </c>
+      <c r="D486">
+        <v>188.962</v>
+      </c>
+      <c r="E486">
+        <v>2.733</v>
+      </c>
+      <c r="F486">
+        <v>5.73</v>
+      </c>
+      <c r="H486">
+        <v>46.372</v>
+      </c>
+      <c r="I486">
+        <v>2.448</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
+      <c r="A487" t="s">
+        <v>20</v>
+      </c>
+      <c r="B487">
+        <v>2</v>
+      </c>
+      <c r="C487">
+        <v>103.66</v>
+      </c>
+      <c r="D487">
+        <v>189.598</v>
+      </c>
+      <c r="E487">
+        <v>2.731</v>
+      </c>
+      <c r="F487">
+        <v>5.825</v>
+      </c>
+      <c r="H487">
+        <v>46.394</v>
+      </c>
+      <c r="I487">
+        <v>2.453</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
+      <c r="A488" t="s">
+        <v>20</v>
+      </c>
+      <c r="B488">
+        <v>2</v>
+      </c>
+      <c r="C488">
+        <v>103.011</v>
+      </c>
+      <c r="D488">
+        <v>190.239</v>
+      </c>
+      <c r="E488">
+        <v>2.729</v>
+      </c>
+      <c r="F488">
+        <v>5.921</v>
+      </c>
+      <c r="H488">
+        <v>46.404</v>
+      </c>
+      <c r="I488">
+        <v>2.459</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" t="s">
+        <v>20</v>
+      </c>
+      <c r="B489">
+        <v>2</v>
+      </c>
+      <c r="C489">
+        <v>102.357</v>
+      </c>
+      <c r="D489">
+        <v>190.885</v>
+      </c>
+      <c r="E489">
+        <v>2.727</v>
+      </c>
+      <c r="F489">
+        <v>6.018</v>
+      </c>
+      <c r="H489">
+        <v>46.765</v>
+      </c>
+      <c r="I489">
+        <v>2.465</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
+      <c r="A490" t="s">
+        <v>20</v>
+      </c>
+      <c r="B490">
+        <v>2</v>
+      </c>
+      <c r="C490">
+        <v>102.286</v>
+      </c>
+      <c r="D490">
+        <v>192.077</v>
+      </c>
+      <c r="E490">
+        <v>2.725</v>
+      </c>
+      <c r="F490">
+        <v>6.163</v>
+      </c>
+      <c r="H490">
+        <v>47.122</v>
+      </c>
+      <c r="I490">
+        <v>2.498</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
+      <c r="A491" t="s">
+        <v>20</v>
+      </c>
+      <c r="B491">
+        <v>2</v>
+      </c>
+      <c r="C491">
+        <v>102.37</v>
+      </c>
+      <c r="D491">
+        <v>193.416</v>
+      </c>
+      <c r="E491">
+        <v>2.722</v>
+      </c>
+      <c r="F491">
+        <v>6.319</v>
+      </c>
+      <c r="H491">
+        <v>47.114</v>
+      </c>
+      <c r="I491">
+        <v>2.539</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
+      <c r="A492" t="s">
+        <v>20</v>
+      </c>
+      <c r="B492">
+        <v>2</v>
+      </c>
+      <c r="C492">
+        <v>102.633</v>
+      </c>
+      <c r="D492">
+        <v>194.852</v>
+      </c>
+      <c r="E492">
+        <v>2.72</v>
+      </c>
+      <c r="F492">
+        <v>6.489</v>
+      </c>
+      <c r="H492">
+        <v>46.576</v>
+      </c>
+      <c r="I492">
+        <v>2.584</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" t="s">
+        <v>20</v>
+      </c>
+      <c r="B493">
+        <v>2</v>
+      </c>
+      <c r="C493">
+        <v>102.9</v>
+      </c>
+      <c r="D493">
+        <v>196.291</v>
+      </c>
+      <c r="E493">
+        <v>2.718</v>
+      </c>
+      <c r="F493">
+        <v>6.658</v>
+      </c>
+      <c r="H493">
+        <v>46.035</v>
+      </c>
+      <c r="I493">
+        <v>2.628</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" t="s">
+        <v>20</v>
+      </c>
+      <c r="B494">
+        <v>2</v>
+      </c>
+      <c r="C494">
+        <v>103.693</v>
+      </c>
+      <c r="D494">
+        <v>198.007</v>
+      </c>
+      <c r="E494">
+        <v>2.715</v>
+      </c>
+      <c r="F494">
+        <v>6.863</v>
+      </c>
+      <c r="H494">
+        <v>44.991</v>
+      </c>
+      <c r="I494">
+        <v>2.684</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495" t="s">
+        <v>20</v>
+      </c>
+      <c r="B495">
+        <v>2</v>
+      </c>
+      <c r="C495">
+        <v>104.481</v>
+      </c>
+      <c r="D495">
+        <v>199.712</v>
+      </c>
+      <c r="E495">
+        <v>2.712</v>
+      </c>
+      <c r="F495">
+        <v>7.067</v>
+      </c>
+      <c r="H495">
+        <v>44.975</v>
+      </c>
+      <c r="I495">
+        <v>2.738</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496" t="s">
+        <v>20</v>
+      </c>
+      <c r="B496">
+        <v>2</v>
+      </c>
+      <c r="C496">
+        <v>105.339</v>
+      </c>
+      <c r="D496">
+        <v>201.449</v>
+      </c>
+      <c r="E496">
+        <v>2.71</v>
+      </c>
+      <c r="F496">
+        <v>7.275</v>
+      </c>
+      <c r="H496">
+        <v>44.952</v>
+      </c>
+      <c r="I496">
+        <v>2.792</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497" t="s">
+        <v>20</v>
+      </c>
+      <c r="B497">
+        <v>2</v>
+      </c>
+      <c r="C497">
+        <v>106.536</v>
+      </c>
+      <c r="D497">
+        <v>203.494</v>
+      </c>
+      <c r="E497">
+        <v>2.706</v>
+      </c>
+      <c r="F497">
+        <v>7.521</v>
+      </c>
+      <c r="H497">
+        <v>43.376</v>
+      </c>
+      <c r="I497">
+        <v>2.847</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498" t="s">
+        <v>20</v>
+      </c>
+      <c r="B498">
+        <v>2</v>
+      </c>
+      <c r="C498">
+        <v>107.744</v>
+      </c>
+      <c r="D498">
+        <v>205.555</v>
+      </c>
+      <c r="E498">
+        <v>2.702</v>
+      </c>
+      <c r="F498">
+        <v>7.769</v>
+      </c>
+      <c r="H498">
+        <v>41.779</v>
+      </c>
+      <c r="I498">
+        <v>2.904</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="A499" t="s">
+        <v>20</v>
+      </c>
+      <c r="B499">
+        <v>2</v>
+      </c>
+      <c r="C499">
+        <v>108.944</v>
+      </c>
+      <c r="D499">
+        <v>207.604</v>
+      </c>
+      <c r="E499">
+        <v>2.699</v>
+      </c>
+      <c r="F499">
+        <v>8.016</v>
+      </c>
+      <c r="H499">
+        <v>41.754</v>
+      </c>
+      <c r="I499">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9">
+      <c r="A500" t="s">
+        <v>21</v>
+      </c>
+      <c r="B500">
+        <v>2</v>
+      </c>
+      <c r="C500">
+        <v>109.87</v>
+      </c>
+      <c r="D500">
+        <v>184.047</v>
+      </c>
+      <c r="E500">
+        <v>2.808</v>
+      </c>
+      <c r="F500">
+        <v>7.19</v>
+      </c>
+      <c r="I500">
+        <v>2.427</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
+      <c r="A501" t="s">
+        <v>21</v>
+      </c>
+      <c r="B501">
+        <v>2</v>
+      </c>
+      <c r="C501">
+        <v>108.125</v>
+      </c>
+      <c r="D501">
+        <v>183.444</v>
+      </c>
+      <c r="E501">
+        <v>2.803</v>
+      </c>
+      <c r="F501">
+        <v>7.575</v>
+      </c>
+      <c r="I501">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9">
+      <c r="A502" t="s">
+        <v>21</v>
+      </c>
+      <c r="B502">
+        <v>2</v>
+      </c>
+      <c r="C502">
+        <v>108.945</v>
+      </c>
+      <c r="D502">
+        <v>184.453</v>
+      </c>
+      <c r="E502">
+        <v>2.786</v>
+      </c>
+      <c r="F502">
+        <v>7.951</v>
+      </c>
+      <c r="I502">
+        <v>2.422</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
+      <c r="A503" t="s">
+        <v>22</v>
+      </c>
+      <c r="B503">
+        <v>2</v>
+      </c>
+      <c r="C503">
+        <v>109.224</v>
+      </c>
+      <c r="D503">
+        <v>186.276</v>
+      </c>
+      <c r="E503">
+        <v>2.744</v>
+      </c>
+      <c r="F503">
+        <v>7.373</v>
+      </c>
+      <c r="I503">
+        <v>3.117</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9">
+      <c r="A504" t="s">
+        <v>22</v>
+      </c>
+      <c r="B504">
+        <v>2</v>
+      </c>
+      <c r="C504">
+        <v>102.908</v>
+      </c>
+      <c r="D504">
+        <v>184.403</v>
+      </c>
+      <c r="E504">
+        <v>2.754</v>
+      </c>
+      <c r="F504">
+        <v>6.97</v>
+      </c>
+      <c r="I504">
+        <v>3.064</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9">
+      <c r="A505" t="s">
+        <v>22</v>
+      </c>
+      <c r="B505">
+        <v>2</v>
+      </c>
+      <c r="C505">
+        <v>100.02</v>
+      </c>
+      <c r="D505">
+        <v>183.295</v>
+      </c>
+      <c r="E505">
+        <v>2.757</v>
+      </c>
+      <c r="F505">
+        <v>6.79</v>
+      </c>
+      <c r="I505">
+        <v>2.995</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
+      <c r="A506" t="s">
+        <v>22</v>
+      </c>
+      <c r="B506">
+        <v>2</v>
+      </c>
+      <c r="C506">
+        <v>99.68</v>
+      </c>
+      <c r="D506">
+        <v>183.04</v>
+      </c>
+      <c r="E506">
+        <v>2.755</v>
+      </c>
+      <c r="F506">
+        <v>6.797</v>
+      </c>
+      <c r="I506">
+        <v>2.905</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
+      <c r="A507" t="s">
+        <v>22</v>
+      </c>
+      <c r="B507">
+        <v>2</v>
+      </c>
+      <c r="C507">
+        <v>101.063</v>
+      </c>
+      <c r="D507">
+        <v>183.681</v>
+      </c>
+      <c r="E507">
+        <v>2.749</v>
+      </c>
+      <c r="F507">
+        <v>6.964</v>
+      </c>
+      <c r="I507">
+        <v>2.791</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9">
+      <c r="A508" t="s">
+        <v>22</v>
+      </c>
+      <c r="B508">
+        <v>2</v>
+      </c>
+      <c r="C508">
+        <v>103.622</v>
+      </c>
+      <c r="D508">
+        <v>185.356</v>
+      </c>
+      <c r="E508">
+        <v>2.742</v>
+      </c>
+      <c r="F508">
+        <v>7.231</v>
+      </c>
+      <c r="I508">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
+      <c r="A509" t="s">
+        <v>22</v>
+      </c>
+      <c r="B509">
+        <v>2</v>
+      </c>
+      <c r="C509">
+        <v>106.835</v>
+      </c>
+      <c r="D509">
+        <v>187.76</v>
+      </c>
+      <c r="E509">
+        <v>2.732</v>
+      </c>
+      <c r="F509">
+        <v>7.572</v>
+      </c>
+      <c r="I509">
+        <v>2.527</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
+      <c r="A510" t="s">
+        <v>23</v>
+      </c>
+      <c r="B510">
+        <v>2</v>
+      </c>
+      <c r="C510">
+        <v>106.064</v>
+      </c>
+      <c r="D510">
+        <v>176.934</v>
+      </c>
+      <c r="E510">
+        <v>2.778</v>
+      </c>
+      <c r="F510">
+        <v>6.957</v>
+      </c>
+      <c r="I510">
+        <v>2.265</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
+      <c r="A511" t="s">
+        <v>23</v>
+      </c>
+      <c r="B511">
+        <v>2</v>
+      </c>
+      <c r="C511">
+        <v>104.312</v>
+      </c>
+      <c r="D511">
+        <v>177.074</v>
+      </c>
+      <c r="E511">
+        <v>2.769</v>
+      </c>
+      <c r="F511">
+        <v>6.757</v>
+      </c>
+      <c r="I511">
+        <v>2.302</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
+      <c r="A512" t="s">
+        <v>23</v>
+      </c>
+      <c r="B512">
+        <v>2</v>
+      </c>
+      <c r="C512">
+        <v>104.657</v>
+      </c>
+      <c r="D512">
+        <v>178.618</v>
+      </c>
+      <c r="E512">
+        <v>2.755</v>
+      </c>
+      <c r="F512">
+        <v>6.815</v>
+      </c>
+      <c r="I512">
+        <v>2.361</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9">
+      <c r="A513" t="s">
+        <v>23</v>
+      </c>
+      <c r="B513">
+        <v>2</v>
+      </c>
+      <c r="C513">
+        <v>105.486</v>
+      </c>
+      <c r="D513">
+        <v>181.236</v>
+      </c>
+      <c r="E513">
+        <v>2.742</v>
+      </c>
+      <c r="F513">
+        <v>7.104</v>
+      </c>
+      <c r="I513">
+        <v>2.443</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9">
+      <c r="A514" t="s">
+        <v>23</v>
+      </c>
+      <c r="B514">
+        <v>2</v>
+      </c>
+      <c r="C514">
+        <v>106.65</v>
+      </c>
+      <c r="D514">
+        <v>185.056</v>
+      </c>
+      <c r="E514">
+        <v>2.725</v>
+      </c>
+      <c r="F514">
+        <v>7.612</v>
+      </c>
+      <c r="I514">
+        <v>2.504</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9">
+      <c r="A515" t="s">
+        <v>23</v>
+      </c>
+      <c r="B515">
+        <v>2</v>
+      </c>
+      <c r="C515">
+        <v>109.742</v>
+      </c>
+      <c r="D515">
+        <v>190.342</v>
+      </c>
+      <c r="E515">
+        <v>2.704</v>
+      </c>
+      <c r="F515">
+        <v>8.322</v>
+      </c>
+      <c r="I515">
+        <v>2.557</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9">
+      <c r="A516" t="s">
+        <v>24</v>
+      </c>
+      <c r="B516">
+        <v>2</v>
+      </c>
+      <c r="C516">
+        <v>109.897</v>
+      </c>
+      <c r="D516">
+        <v>206.684</v>
+      </c>
+      <c r="E516">
+        <v>2.672</v>
+      </c>
+      <c r="F516">
+        <v>13.278</v>
+      </c>
+      <c r="I516">
+        <v>2.133</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9">
+      <c r="A517" t="s">
+        <v>24</v>
+      </c>
+      <c r="B517">
+        <v>2</v>
+      </c>
+      <c r="C517">
+        <v>104.209</v>
+      </c>
+      <c r="D517">
+        <v>198.644</v>
+      </c>
+      <c r="E517">
+        <v>2.693</v>
+      </c>
+      <c r="F517">
+        <v>11.983</v>
+      </c>
+      <c r="I517">
+        <v>2.176</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9">
+      <c r="A518" t="s">
+        <v>24</v>
+      </c>
+      <c r="B518">
+        <v>2</v>
+      </c>
+      <c r="C518">
+        <v>99.027</v>
+      </c>
+      <c r="D518">
+        <v>191.626</v>
+      </c>
+      <c r="E518">
+        <v>2.713</v>
+      </c>
+      <c r="F518">
+        <v>10.85</v>
+      </c>
+      <c r="I518">
+        <v>2.169</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9">
+      <c r="A519" t="s">
+        <v>24</v>
+      </c>
+      <c r="B519">
+        <v>2</v>
+      </c>
+      <c r="C519">
+        <v>94.662</v>
+      </c>
+      <c r="D519">
+        <v>186.571</v>
+      </c>
+      <c r="E519">
+        <v>2.729</v>
+      </c>
+      <c r="F519">
+        <v>9.863</v>
+      </c>
+      <c r="I519">
+        <v>2.172</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9">
+      <c r="A520" t="s">
+        <v>24</v>
+      </c>
+      <c r="B520">
+        <v>2</v>
+      </c>
+      <c r="C520">
+        <v>91.462</v>
+      </c>
+      <c r="D520">
+        <v>184.005</v>
+      </c>
+      <c r="E520">
+        <v>2.741</v>
+      </c>
+      <c r="F520">
+        <v>9.068</v>
+      </c>
+      <c r="I520">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9">
+      <c r="A521" t="s">
+        <v>24</v>
+      </c>
+      <c r="B521">
+        <v>2</v>
+      </c>
+      <c r="C521">
+        <v>89.63</v>
+      </c>
+      <c r="D521">
+        <v>183.738</v>
+      </c>
+      <c r="E521">
+        <v>2.748</v>
+      </c>
+      <c r="F521">
+        <v>8.507</v>
+      </c>
+      <c r="I521">
+        <v>2.112</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9">
+      <c r="A522" t="s">
+        <v>24</v>
+      </c>
+      <c r="B522">
+        <v>2</v>
+      </c>
+      <c r="C522">
+        <v>89.1</v>
+      </c>
+      <c r="D522">
+        <v>184.583</v>
+      </c>
+      <c r="E522">
+        <v>2.751</v>
+      </c>
+      <c r="F522">
+        <v>8.23</v>
+      </c>
+      <c r="I522">
+        <v>2.066</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
+      <c r="A523" t="s">
+        <v>24</v>
+      </c>
+      <c r="B523">
+        <v>2</v>
+      </c>
+      <c r="C523">
+        <v>89.992</v>
+      </c>
+      <c r="D523">
+        <v>186.274</v>
+      </c>
+      <c r="E523">
+        <v>2.751</v>
+      </c>
+      <c r="F523">
+        <v>8.316</v>
+      </c>
+      <c r="I523">
+        <v>1.985</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
+      <c r="A524" t="s">
+        <v>24</v>
+      </c>
+      <c r="B524">
+        <v>2</v>
+      </c>
+      <c r="C524">
+        <v>91.776</v>
+      </c>
+      <c r="D524">
+        <v>188.766</v>
+      </c>
+      <c r="E524">
+        <v>2.746</v>
+      </c>
+      <c r="F524">
+        <v>8.799</v>
+      </c>
+      <c r="I524">
+        <v>2.013</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
+      <c r="A525" t="s">
+        <v>24</v>
+      </c>
+      <c r="B525">
+        <v>2</v>
+      </c>
+      <c r="C525">
+        <v>94.464</v>
+      </c>
+      <c r="D525">
+        <v>192.195</v>
+      </c>
+      <c r="E525">
+        <v>2.735</v>
+      </c>
+      <c r="F525">
+        <v>9.315</v>
+      </c>
+      <c r="I525">
+        <v>2.065</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9">
+      <c r="A526" t="s">
+        <v>24</v>
+      </c>
+      <c r="B526">
+        <v>2</v>
+      </c>
+      <c r="C526">
+        <v>98.095</v>
+      </c>
+      <c r="D526">
+        <v>197.05</v>
+      </c>
+      <c r="E526">
+        <v>2.718</v>
+      </c>
+      <c r="F526">
+        <v>9.886</v>
+      </c>
+      <c r="I526">
+        <v>2.155</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9">
+      <c r="A527" t="s">
+        <v>24</v>
+      </c>
+      <c r="B527">
+        <v>2</v>
+      </c>
+      <c r="C527">
+        <v>102.716</v>
+      </c>
+      <c r="D527">
+        <v>203.305</v>
+      </c>
+      <c r="E527">
+        <v>2.696</v>
+      </c>
+      <c r="F527">
+        <v>10.592</v>
+      </c>
+      <c r="I527">
+        <v>2.296</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9">
+      <c r="A528" t="s">
+        <v>24</v>
+      </c>
+      <c r="B528">
+        <v>2</v>
+      </c>
+      <c r="C528">
+        <v>108.52</v>
+      </c>
+      <c r="D528">
+        <v>210.389</v>
+      </c>
+      <c r="E528">
+        <v>2.674</v>
+      </c>
+      <c r="F528">
+        <v>11.538</v>
+      </c>
+      <c r="I528">
+        <v>2.486</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
+      <c r="A529" t="s">
+        <v>25</v>
+      </c>
+      <c r="B529">
+        <v>2</v>
+      </c>
+      <c r="C529">
+        <v>105.896</v>
+      </c>
+      <c r="D529">
+        <v>195.955</v>
+      </c>
+      <c r="E529">
+        <v>2.701</v>
+      </c>
+      <c r="F529">
+        <v>9.324</v>
+      </c>
+      <c r="I529">
+        <v>1.868</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9">
+      <c r="A530" t="s">
+        <v>25</v>
+      </c>
+      <c r="B530">
+        <v>2</v>
+      </c>
+      <c r="C530">
+        <v>97.389</v>
+      </c>
+      <c r="D530">
+        <v>186.519</v>
+      </c>
+      <c r="E530">
+        <v>2.71</v>
+      </c>
+      <c r="F530">
+        <v>8.628</v>
+      </c>
+      <c r="I530">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9">
+      <c r="A531" t="s">
+        <v>25</v>
+      </c>
+      <c r="B531">
+        <v>2</v>
+      </c>
+      <c r="C531">
+        <v>90.809</v>
+      </c>
+      <c r="D531">
+        <v>178.216</v>
+      </c>
+      <c r="E531">
+        <v>2.714</v>
+      </c>
+      <c r="F531">
+        <v>8.277</v>
+      </c>
+      <c r="I531">
+        <v>1.826</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9">
+      <c r="A532" t="s">
+        <v>25</v>
+      </c>
+      <c r="B532">
+        <v>2</v>
+      </c>
+      <c r="C532">
+        <v>87.61</v>
+      </c>
+      <c r="D532">
+        <v>173.56</v>
+      </c>
+      <c r="E532">
+        <v>2.716</v>
+      </c>
+      <c r="F532">
+        <v>8.177</v>
+      </c>
+      <c r="I532">
+        <v>1.859</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
+      <c r="A533" t="s">
+        <v>25</v>
+      </c>
+      <c r="B533">
+        <v>2</v>
+      </c>
+      <c r="C533">
+        <v>86.579</v>
+      </c>
+      <c r="D533">
+        <v>171.796</v>
+      </c>
+      <c r="E533">
+        <v>2.716</v>
+      </c>
+      <c r="F533">
+        <v>8.207</v>
+      </c>
+      <c r="I533">
+        <v>1.889</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
+      <c r="A534" t="s">
+        <v>25</v>
+      </c>
+      <c r="B534">
+        <v>2</v>
+      </c>
+      <c r="C534">
+        <v>86.749</v>
+      </c>
+      <c r="D534">
+        <v>172.259</v>
+      </c>
+      <c r="E534">
+        <v>2.716</v>
+      </c>
+      <c r="F534">
+        <v>8.318</v>
+      </c>
+      <c r="I534">
+        <v>1.913</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="A535" t="s">
+        <v>25</v>
+      </c>
+      <c r="B535">
+        <v>2</v>
+      </c>
+      <c r="C535">
+        <v>87.433</v>
+      </c>
+      <c r="D535">
+        <v>174.206</v>
+      </c>
+      <c r="E535">
+        <v>2.717</v>
+      </c>
+      <c r="F535">
+        <v>8.473</v>
+      </c>
+      <c r="I535">
+        <v>1.937</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
+      <c r="A536" t="s">
+        <v>25</v>
+      </c>
+      <c r="B536">
+        <v>2</v>
+      </c>
+      <c r="C536">
+        <v>88.266</v>
+      </c>
+      <c r="D536">
+        <v>176.829</v>
+      </c>
+      <c r="E536">
+        <v>2.719</v>
+      </c>
+      <c r="F536">
+        <v>8.667</v>
+      </c>
+      <c r="I536">
+        <v>1.983</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" t="s">
+        <v>25</v>
+      </c>
+      <c r="B537">
+        <v>2</v>
+      </c>
+      <c r="C537">
+        <v>89.432</v>
+      </c>
+      <c r="D537">
+        <v>179.022</v>
+      </c>
+      <c r="E537">
+        <v>2.719</v>
+      </c>
+      <c r="F537">
+        <v>9.107</v>
+      </c>
+      <c r="I537">
+        <v>2.033</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
+      <c r="A538" t="s">
+        <v>25</v>
+      </c>
+      <c r="B538">
+        <v>2</v>
+      </c>
+      <c r="C538">
+        <v>91.519</v>
+      </c>
+      <c r="D538">
+        <v>180.281</v>
+      </c>
+      <c r="E538">
+        <v>2.717</v>
+      </c>
+      <c r="F538">
+        <v>9.723</v>
+      </c>
+      <c r="I538">
+        <v>2.089</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" t="s">
+        <v>25</v>
+      </c>
+      <c r="B539">
+        <v>2</v>
+      </c>
+      <c r="C539">
+        <v>94.55</v>
+      </c>
+      <c r="D539">
+        <v>181.304</v>
+      </c>
+      <c r="E539">
+        <v>2.711</v>
+      </c>
+      <c r="F539">
+        <v>10.571</v>
+      </c>
+      <c r="I539">
+        <v>2.158</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
+      <c r="A540" t="s">
+        <v>25</v>
+      </c>
+      <c r="B540">
+        <v>2</v>
+      </c>
+      <c r="C540">
+        <v>98.569</v>
+      </c>
+      <c r="D540">
+        <v>182.961</v>
+      </c>
+      <c r="E540">
+        <v>2.7</v>
+      </c>
+      <c r="F540">
+        <v>11.634</v>
+      </c>
+      <c r="I540">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9">
+      <c r="A541" t="s">
+        <v>25</v>
+      </c>
+      <c r="B541">
+        <v>2</v>
+      </c>
+      <c r="C541">
+        <v>103.569</v>
+      </c>
+      <c r="D541">
+        <v>186.068</v>
+      </c>
+      <c r="E541">
+        <v>2.682</v>
+      </c>
+      <c r="F541">
+        <v>12.874</v>
+      </c>
+      <c r="I541">
+        <v>2.324</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9">
+      <c r="A542" t="s">
+        <v>25</v>
+      </c>
+      <c r="B542">
+        <v>2</v>
+      </c>
+      <c r="C542">
+        <v>109.496</v>
+      </c>
+      <c r="D542">
+        <v>191.219</v>
+      </c>
+      <c r="E542">
+        <v>2.659</v>
+      </c>
+      <c r="F542">
+        <v>14.276</v>
+      </c>
+      <c r="I542">
+        <v>2.389</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9">
+      <c r="A543" t="s">
+        <v>26</v>
+      </c>
+      <c r="B543">
+        <v>2</v>
+      </c>
+      <c r="C543">
+        <v>107.323</v>
+      </c>
+      <c r="D543">
+        <v>197.905</v>
+      </c>
+      <c r="E543">
+        <v>2.709</v>
+      </c>
+      <c r="F543">
+        <v>9.957</v>
+      </c>
+      <c r="I543">
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9">
+      <c r="A544" t="s">
+        <v>26</v>
+      </c>
+      <c r="B544">
+        <v>2</v>
+      </c>
+      <c r="C544">
+        <v>101.88</v>
+      </c>
+      <c r="D544">
+        <v>189.328</v>
+      </c>
+      <c r="E544">
+        <v>2.738</v>
+      </c>
+      <c r="F544">
+        <v>9.026</v>
+      </c>
+      <c r="I544">
+        <v>2.312</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
+      <c r="A545" t="s">
+        <v>26</v>
+      </c>
+      <c r="B545">
+        <v>2</v>
+      </c>
+      <c r="C545">
+        <v>98.134</v>
+      </c>
+      <c r="D545">
+        <v>182.423</v>
+      </c>
+      <c r="E545">
+        <v>2.76</v>
+      </c>
+      <c r="F545">
+        <v>8.366</v>
+      </c>
+      <c r="I545">
+        <v>2.333</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9">
+      <c r="A546" t="s">
+        <v>26</v>
+      </c>
+      <c r="B546">
+        <v>2</v>
+      </c>
+      <c r="C546">
+        <v>95.837</v>
+      </c>
+      <c r="D546">
+        <v>178.311</v>
+      </c>
+      <c r="E546">
+        <v>2.771</v>
+      </c>
+      <c r="F546">
+        <v>7.957</v>
+      </c>
+      <c r="I546">
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9">
+      <c r="A547" t="s">
+        <v>26</v>
+      </c>
+      <c r="B547">
+        <v>2</v>
+      </c>
+      <c r="C547">
+        <v>94.979</v>
+      </c>
+      <c r="D547">
+        <v>177.085</v>
+      </c>
+      <c r="E547">
+        <v>2.773</v>
+      </c>
+      <c r="F547">
+        <v>7.717</v>
+      </c>
+      <c r="I547">
+        <v>2.415</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9">
+      <c r="A548" t="s">
+        <v>26</v>
+      </c>
+      <c r="B548">
+        <v>2</v>
+      </c>
+      <c r="C548">
+        <v>95.501</v>
+      </c>
+      <c r="D548">
+        <v>177.744</v>
+      </c>
+      <c r="E548">
+        <v>2.767</v>
+      </c>
+      <c r="F548">
+        <v>7.635</v>
+      </c>
+      <c r="I548">
+        <v>2.449</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9">
+      <c r="A549" t="s">
+        <v>26</v>
+      </c>
+      <c r="B549">
+        <v>2</v>
+      </c>
+      <c r="C549">
+        <v>97.212</v>
+      </c>
+      <c r="D549">
+        <v>179.095</v>
+      </c>
+      <c r="E549">
+        <v>2.759</v>
+      </c>
+      <c r="F549">
+        <v>7.727</v>
+      </c>
+      <c r="I549">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9">
+      <c r="A550" t="s">
+        <v>26</v>
+      </c>
+      <c r="B550">
+        <v>2</v>
+      </c>
+      <c r="C550">
+        <v>100.065</v>
+      </c>
+      <c r="D550">
+        <v>180.329</v>
+      </c>
+      <c r="E550">
+        <v>2.751</v>
+      </c>
+      <c r="F550">
+        <v>7.943</v>
+      </c>
+      <c r="I550">
+        <v>2.501</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
+      <c r="A551" t="s">
+        <v>26</v>
+      </c>
+      <c r="B551">
+        <v>2</v>
+      </c>
+      <c r="C551">
+        <v>104.13</v>
+      </c>
+      <c r="D551">
+        <v>181.137</v>
+      </c>
+      <c r="E551">
+        <v>2.746</v>
+      </c>
+      <c r="F551">
+        <v>8.179</v>
+      </c>
+      <c r="I551">
+        <v>2.501</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9">
+      <c r="A552" t="s">
+        <v>26</v>
+      </c>
+      <c r="B552">
+        <v>2</v>
+      </c>
+      <c r="C552">
+        <v>109.377</v>
+      </c>
+      <c r="D552">
+        <v>181.898</v>
+      </c>
+      <c r="E552">
+        <v>2.738</v>
+      </c>
+      <c r="F552">
+        <v>8.398</v>
+      </c>
+      <c r="I552">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9">
+      <c r="A553" t="s">
+        <v>27</v>
+      </c>
+      <c r="B553">
+        <v>2</v>
+      </c>
+      <c r="C553">
+        <v>108.694</v>
+      </c>
+      <c r="D553">
+        <v>183.304</v>
+      </c>
+      <c r="E553">
+        <v>2.715</v>
+      </c>
+      <c r="F553">
+        <v>8.153</v>
+      </c>
+      <c r="I553">
+        <v>2.397</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9">
+      <c r="A554" t="s">
+        <v>27</v>
+      </c>
+      <c r="B554">
+        <v>2</v>
+      </c>
+      <c r="C554">
+        <v>100.896</v>
+      </c>
+      <c r="D554">
+        <v>178.421</v>
+      </c>
+      <c r="E554">
+        <v>2.718</v>
+      </c>
+      <c r="F554">
+        <v>7.385</v>
+      </c>
+      <c r="I554">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9">
+      <c r="A555" t="s">
+        <v>27</v>
+      </c>
+      <c r="B555">
+        <v>2</v>
+      </c>
+      <c r="C555">
+        <v>96.618</v>
+      </c>
+      <c r="D555">
+        <v>176.128</v>
+      </c>
+      <c r="E555">
+        <v>2.724</v>
+      </c>
+      <c r="F555">
+        <v>7.006</v>
+      </c>
+      <c r="I555">
+        <v>2.204</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9">
+      <c r="A556" t="s">
+        <v>27</v>
+      </c>
+      <c r="B556">
+        <v>2</v>
+      </c>
+      <c r="C556">
+        <v>95.766</v>
+      </c>
+      <c r="D556">
+        <v>175.859</v>
+      </c>
+      <c r="E556">
+        <v>2.728</v>
+      </c>
+      <c r="F556">
+        <v>7.009</v>
+      </c>
+      <c r="I556">
+        <v>2.186</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9">
+      <c r="A557" t="s">
+        <v>27</v>
+      </c>
+      <c r="B557">
+        <v>2</v>
+      </c>
+      <c r="C557">
+        <v>97.091</v>
+      </c>
+      <c r="D557">
+        <v>176.736</v>
+      </c>
+      <c r="E557">
+        <v>2.73</v>
+      </c>
+      <c r="F557">
+        <v>7.373</v>
+      </c>
+      <c r="I557">
+        <v>2.171</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9">
+      <c r="A558" t="s">
+        <v>27</v>
+      </c>
+      <c r="B558">
+        <v>2</v>
+      </c>
+      <c r="C558">
+        <v>99.891</v>
+      </c>
+      <c r="D558">
+        <v>178.528</v>
+      </c>
+      <c r="E558">
+        <v>2.727</v>
+      </c>
+      <c r="F558">
+        <v>8.007</v>
+      </c>
+      <c r="I558">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9">
+      <c r="A559" t="s">
+        <v>27</v>
+      </c>
+      <c r="B559">
+        <v>2</v>
+      </c>
+      <c r="C559">
+        <v>103.796</v>
+      </c>
+      <c r="D559">
+        <v>181.979</v>
+      </c>
+      <c r="E559">
+        <v>2.716</v>
+      </c>
+      <c r="F559">
+        <v>8.698</v>
+      </c>
+      <c r="I559">
+        <v>2.152</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9">
+      <c r="A560" t="s">
+        <v>27</v>
+      </c>
+      <c r="B560">
+        <v>2</v>
+      </c>
+      <c r="C560">
+        <v>109.267</v>
+      </c>
+      <c r="D560">
+        <v>187.741</v>
+      </c>
+      <c r="E560">
+        <v>2.696</v>
+      </c>
+      <c r="F560">
+        <v>9.497</v>
+      </c>
+      <c r="I560">
+        <v>2.177</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9">
+      <c r="A561" t="s">
+        <v>28</v>
+      </c>
+      <c r="B561">
+        <v>2</v>
+      </c>
+      <c r="C561">
+        <v>109.967</v>
+      </c>
+      <c r="D561">
+        <v>183.246</v>
+      </c>
+      <c r="E561">
+        <v>2.766</v>
+      </c>
+      <c r="F561">
+        <v>6.976</v>
+      </c>
+      <c r="I561">
+        <v>1.874</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B1:B473" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B1:B561" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
